--- a/Report 1 ngày/Yino-1-ngày.xlsx
+++ b/Report 1 ngày/Yino-1-ngày.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="127">
   <si>
     <t>Account name</t>
   </si>
@@ -62,7 +62,7 @@
     <t>active</t>
   </si>
   <si>
-    <t>2024-04-05</t>
+    <t>2024-04-10</t>
   </si>
   <si>
     <t>Home Is Where We Park It You And Me And The Dogs - Gift For Camping Lovers - Personalized Doormat_DMHC050NGO1503WP_07/07/23</t>
@@ -80,325 +80,319 @@
     <t>Grandma Mother Hugged This Soft Pillow - Gift For Granddaughter, Grandson, Kids - Personalized Pillow_PLAT928DIL189WP_14/07/23</t>
   </si>
   <si>
+    <t>WP 0206-02</t>
+  </si>
+  <si>
+    <t>Bestie Partners In Crime If We Get Caught - Personalized Custom Tumbler_TUGT152CIN11335WP_10/01</t>
+  </si>
+  <si>
+    <t>Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Passport Cover, Passport Holder_VideoAds_PDHU012CIN1430WP_220723</t>
+  </si>
+  <si>
+    <t>Dike - Maximo - Wanderprints 1</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic3_Smart Shopping ROAS 2 (Purchase 30 days) - Copy</t>
+  </si>
+  <si>
+    <t>7-day click</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic11_Bestie Gift</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic16_All product Prime Day_07/07</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic12_Gift For Couples_18/01</t>
+  </si>
+  <si>
+    <t>Dear Dad Great Job We're Awesome Thank You - Father Gift - Personalized Custom T Shirt_04/05</t>
+  </si>
+  <si>
+    <t>Dike - Maximo - Wanderprints 3</t>
+  </si>
+  <si>
+    <t>Family Couple A Lovely Lady And A Grumpy Old Man Live Here - Couple Gift - Personalized Custom Doormat_DMBD520ELE1384WP_17/03</t>
+  </si>
+  <si>
     <t>Couple After Years Hotter Than This Coffee - Gift For Couples - Personalized Mug_MGMN835CIN1553WP_31/08/23</t>
   </si>
   <si>
     <t>Family Couple A Lovely Lady And A Grumpy Old Man Live Here - Couple Gift - Personalized Custom Doormat_VideoAds_DMBD520ELE1384WP_170623</t>
   </si>
   <si>
-    <t>WP 0206-02</t>
-  </si>
-  <si>
-    <t>Bestie Partners In Crime If We Get Caught - Personalized Custom Tumbler_TUGT152CIN11335WP_10/01</t>
-  </si>
-  <si>
-    <t>Dike - Maximo - Wanderprints 1</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic16_All product Prime Day_07/07</t>
+    <t>AHUY_20/08_Brand Ads_Special gift with personal touch_Conversion</t>
+  </si>
+  <si>
+    <t>(Chuẩn)_Personalized Family Old Couple When We Get Customized Poster_PT120521NAH02WP_12/05</t>
+  </si>
+  <si>
+    <t>Ecomy Gift PTE 01</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic27_Retarget Maximum Conversion_04/08</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic11_Bestie Gift_07/02</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic25_Summer Vibe_16/06</t>
   </si>
   <si>
     <t>Home Is Where We Park It - Gift For Camping Lovers - Personalized Custom Doormat_DMHC027NGO1440WP_13/06/23</t>
   </si>
   <si>
-    <t>Marketing_Dynamic12_Gift For Couples_18/01</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic3_Smart Shopping ROAS 2 (Purchase 30 days) - Copy</t>
-  </si>
-  <si>
-    <t>7-day click</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic11_Bestie Gift</t>
-  </si>
-  <si>
-    <t>Dike - Maximo - Wanderprints 3</t>
-  </si>
-  <si>
-    <t>Family Couple A Lovely Lady And A Grumpy Old Man Live Here - Couple Gift - Personalized Custom Doormat_DMBD520ELE1384WP_17/03</t>
-  </si>
-  <si>
-    <t>Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Passport Cover, Passport Holder_VideoAds_PDHU012CIN1430WP_220723</t>
+    <t>03/02/24_Reopen_Dear Mom Great Job We're Awesome Thank You Young - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_VideoAds_TSVT166HAL1096WP_2804</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for New Dad Image_09/04/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Memorial Dad_10/04/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Memorial Dad Carosel_10/04/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for New Dad Carosel_09/04/24</t>
+  </si>
+  <si>
+    <t>AHUY_22/08_Brand Ads_Personalized home decor, garden decor, backyard decor_Conversion</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic18_Camping Topic_16/08</t>
+  </si>
+  <si>
+    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Family, Trippin', Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_VideoAds_PCAH303ELE2165WP_2904</t>
+  </si>
+  <si>
+    <t>Making Memories One Campsite At A Time Husband Wife Camping Couple - Personalized Custom Flag_VideoAds_FLTN755NAH1507WP_2903</t>
+  </si>
+  <si>
+    <t>Video_Branding Ads_All Product_16/08</t>
+  </si>
+  <si>
+    <t>Go Away Unless You Have Alcohol And Cat Treats Funny Cartoon Cat - Gift For Cat Lovers, Couples - Personalized Doormat_DMAK803NAH2452WP_26/07/23</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Mom Carosel_29/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic23_2023 Father's Day Top Trending_25/05</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic12_Gift For Couples_07/02</t>
+  </si>
+  <si>
+    <t>Dike - Maximo - Wanderprints 2</t>
+  </si>
+  <si>
+    <t>LearnmoredAds_Dog Couple A Lovely Lady And A Grumpy Old Man Live Here - Gift For Dog Lovers - Personalized Custom Doormat_DMBD528ELE1393WP_03/11</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic4_Retarget ROAS - Copy</t>
+  </si>
+  <si>
+    <t>You Are The Reason I Don't Punch People At Work - Funny, Anniversary, Birthday Gifts For Colleagues, Coworker, Besties - Personalized Custom Acrylic Keychain_VideoAds_ADAK733NAH2189WP_200523</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic24_2023 Father's Day Best Selling_26/05</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic22_Gift For Father_05/05</t>
+  </si>
+  <si>
+    <t>What Day Is Today Who Cares Retired - Retirement Gift - Personalized Custom T Shirt_TSCT324HAL715WP_01/04</t>
+  </si>
+  <si>
+    <t>Custom Photo Funny Family Pet Face - Gift For Men, Dog And Cat Lovers - Personalized Custom Hawaiian Shirt_VideoAds_HSTD137ALE007WP_260523</t>
+  </si>
+  <si>
+    <t>Advantage + Shopping_Custom Photo Pillow In The Shape Of Your Beloved Pet - Gift For Friends, Lovers, Husband, Wife And Pet Lovers - Personalized Custom Shape Pillow_LSTRA001MAR001WP_20/07/23</t>
+  </si>
+  <si>
+    <t>Marketing_Book Lovers day Image_10/08</t>
+  </si>
+  <si>
+    <t>Reading Just A Girl Who Loves Book - Gift For Book Lovers - Personalized Custom Zippered Canvas Bag_VideoAds_ZTAT899DIL143WP_280623</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Mom Image_29/03/24</t>
+  </si>
+  <si>
+    <t>Dear Dad Great Job We're Awesome Thank You Young - Father Gift - Personalized Custom T Shirt_TSBD577HAL759WP_09/05</t>
+  </si>
+  <si>
+    <t>Video_Branding Ads_Motherdays_21/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Please Be Mindful Of The Energy You Bring Into This Space - Birthday, Loving Gift For Yourself, Women, Yoga Lovers - Personalized Custom Shaped Wood Sign_WSTR045HAL1524WP_31/08/23</t>
+  </si>
+  <si>
+    <t>Ecomy Gift PTE 03</t>
+  </si>
+  <si>
+    <t>Mom Multitasking Overworked Magician - Gift For Mother - Personalized Leather Bag_VideoAdsR_EAHT331NEL2094WP_090424</t>
+  </si>
+  <si>
+    <t>7-day click, 1-day view or 1-day engaged view</t>
+  </si>
+  <si>
+    <t>Image_Branding Ads_All Product_18/08</t>
+  </si>
+  <si>
+    <t>Video_Branding Ads_Motherdays_21/02/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Memorial Carosel_04/04/24 - Copy</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Memorial Image_04/04/24</t>
+  </si>
+  <si>
+    <t>Please Be Mindful Of The Energy You Bring Into This Space - Birthday, Loving Gift For Yourself, Women, Yoga Lovers - Personalized Doormat_VideoAds_DMHP092HAL1425WP_150823</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic20_Gift For Mother_14/02</t>
+  </si>
+  <si>
+    <t>Vintage Map Papa Title - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Custom T Shirt_TSHP032HAL1210WP_26/04</t>
+  </si>
+  <si>
+    <t>We Rule The House Dog Cat Version - Home Decor, Birthday, Funny, Housewarming Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Pillow_VideoAds_PLTP028BIL076WP_220823</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Pet Mom Image_28/03/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Pet Mom Carosel_28/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Daddy Papa Stars And Stripes - Gift For Father, Grandpa, Grandfather - Personalized Classic Cap_CPTN1227ELE3128WP_10/04/24</t>
+  </si>
+  <si>
+    <t>Camping Couple Husband &amp; Wife Camping Partners For Life - Anniversary, Vacation, Funny Gift For Campers - Personalized Custom Shaped Wood Sign_WSAK887NAH2807WP_14/11/23</t>
+  </si>
+  <si>
+    <t>Reading Chibi Just A Girl Who Loves Books - Personalized Custom Fleece Blanket_VideoAds_FBMN683CIN1005WP_1705</t>
+  </si>
+  <si>
+    <t>Runagain_Dear Mom Great Job We're Awesome Thank You - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_TSTS006HAL740WP_08/02</t>
+  </si>
+  <si>
+    <t>25/05_Brand Ads_Summer Vibe</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for New Mom Carosel_03/04/24</t>
+  </si>
+  <si>
+    <t>Bestie Partners In Crime If We Get Caught Black Ver - Gift For Bestie - Personalized Custom Rectangle Acrylic Keychain_ADGT214CIN1288WP_19/04</t>
+  </si>
+  <si>
+    <t>New Product_Stars And Stripes, Fist Bump - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure_TMNN429HEL971WP_28/03/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for New Mom Image_03/04/24</t>
+  </si>
+  <si>
+    <t>Marketing_Memorial Gift Ideas Image_11/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Marketing_Happy St Patrick's Day - Summer Vibe Image_17/03/24</t>
+  </si>
+  <si>
+    <t>Marketing_House Warming Gift Ideas Carosel_12/03/24</t>
+  </si>
+  <si>
+    <t>Dad, Papa, Daddy Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_TSTR193ELE3063WP_22/03/24</t>
+  </si>
+  <si>
+    <t>You Are My Love I Married You Because I Can't Live Without You Husband Wife - Gift For Couples - Personalized Custom Fleece Blanket_VideoAds_FBAK671NAH1961WP_1403</t>
+  </si>
+  <si>
+    <t>Dear Mom Great Job I'm Awesome Thank You - Mother Gift - Personalized Custom T Shirt_05/04</t>
+  </si>
+  <si>
+    <t>Kiet Pets 1</t>
+  </si>
+  <si>
+    <t>Patio Welcome Grilling Proudly Serving Whatever You Bring - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK391NAH949WP_16/11</t>
+  </si>
+  <si>
+    <t>Home Is Where We Park It - Family Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Doormat_VideoAds_DMTN1029NAH2410WP_280723</t>
+  </si>
+  <si>
+    <t>Stars &amp; Stripes, Best Dad Ever Punching Hand - Gift For Father, Daddy - Personalized Tape Measure_TMNA344HEL974WP_02/04/24</t>
+  </si>
+  <si>
+    <t>Ecomy Gift PTE 04 _UK Time</t>
+  </si>
+  <si>
+    <t>Runagain_Querido Pai Ótimo Trabalho Nós Somos Incríveis Obrigado Jovem - T Shirt Personalizado_TSBD893HAL1390WP_01/03/24</t>
+  </si>
+  <si>
+    <t>Couple Kissing Style 2 - Anniversary Gift For Couples - Personalized Acrylic Car Hanger_AHBD1019ELE2765WP_28/12/23</t>
   </si>
   <si>
     <t>Think Of This Blanket - Gift For Sisters - Personalized Fleece Blanket_VideoAds_FBHU017NEL1496WP_180823</t>
   </si>
   <si>
-    <t>Dear Dad Great Job We're Awesome Thank You - Father Gift - Personalized Custom T Shirt_04/05</t>
-  </si>
-  <si>
-    <t>03/02/24_Reopen_Dear Mom Great Job We're Awesome Thank You Young - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_VideoAds_TSVT166HAL1096WP_2804</t>
-  </si>
-  <si>
-    <t>AHUY_20/08_Brand Ads_Special gift with personal touch_Conversion</t>
-  </si>
-  <si>
-    <t>Making Memories One Campsite At A Time Husband Wife Camping Couple - Personalized Custom Flag_VideoAds_FLTN755NAH1507WP_2903</t>
-  </si>
-  <si>
-    <t>Ecomy Gift PTE 01</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic27_Retarget Maximum Conversion_04/08</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic25_Summer Vibe_16/06</t>
-  </si>
-  <si>
-    <t>Go Away Unless You Have Alcohol And Cat Treats Funny Cartoon Cat - Gift For Cat Lovers, Couples - Personalized Doormat_DMAK803NAH2452WP_26/07/23</t>
-  </si>
-  <si>
-    <t>Vintage Map Papa Title - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Custom T Shirt_TSHP032HAL1210WP_26/04</t>
-  </si>
-  <si>
-    <t>(Chuẩn)_Personalized Family Old Couple When We Get Customized Poster_PT120521NAH02WP_12/05</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Pet Mom Image_28/03/24</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Mom Image_29/03/24</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Mom Carosel_29/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Pet Mom Carosel_28/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic11_Bestie Gift_07/02</t>
-  </si>
-  <si>
-    <t>Please Be Mindful Of The Energy You Bring Into This Space - Birthday, Loving Gift For Yourself, Women, Yoga Lovers - Personalized Custom Shaped Wood Sign_WSTR045HAL1524WP_31/08/23</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Memorial Image_03/04/24</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Memorial Carosel_03/04/24 - Copy</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for New Mom Image_03/04/24</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for New Mom Carosel_03/04/24</t>
-  </si>
-  <si>
-    <t>Video_Branding Ads_All Product_16/08</t>
-  </si>
-  <si>
-    <t>We Rule The House Dog Cat Version - Home Decor, Birthday, Funny, Housewarming Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Pillow_VideoAds_PLTP028BIL076WP_220823</t>
-  </si>
-  <si>
-    <t>AHUY_22/08_Brand Ads_Personalized home decor, garden decor, backyard decor_Conversion</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic24_2023 Father's Day Best Selling_26/05</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic22_Gift For Father_05/05</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic23_2023 Father's Day Top Trending_25/05</t>
-  </si>
-  <si>
-    <t>You Are The Reason I Don't Punch People At Work - Funny, Anniversary, Birthday Gifts For Colleagues, Coworker, Besties - Personalized Custom Acrylic Keychain_VideoAds_ADAK733NAH2189WP_200523</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic18_Camping Topic_16/08</t>
-  </si>
-  <si>
-    <t>25/05_Brand Ads_Summer Vibe</t>
-  </si>
-  <si>
-    <t>Bestie Partners In Crime If We Get Caught Black Ver - Gift For Bestie - Personalized Custom Rectangle Acrylic Keychain_ADGT214CIN1288WP_19/04</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic12_Gift For Couples_07/02</t>
-  </si>
-  <si>
-    <t>Marketing_Book Lovers day Image_10/08</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic4_Retarget ROAS - Copy</t>
-  </si>
-  <si>
-    <t>Dike - Maximo - Wanderprints 2</t>
-  </si>
-  <si>
-    <t>LearnmoredAds_Dog Couple A Lovely Lady And A Grumpy Old Man Live Here - Gift For Dog Lovers - Personalized Custom Doormat_DMBD528ELE1393WP_03/11</t>
-  </si>
-  <si>
-    <t>Custom Photo Funny Family Pet Face - Gift For Men, Dog And Cat Lovers - Personalized Custom Hawaiian Shirt_VideoAds_HSTD137ALE007WP_260523</t>
-  </si>
-  <si>
-    <t>Video_Branding Ads_Motherdays_21/02/24</t>
-  </si>
-  <si>
-    <t>Video_Branding Ads_Motherdays_21/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Image_Branding Ads_All Product_18/08</t>
-  </si>
-  <si>
-    <t>Advantage + Shopping_Custom Photo Pillow In The Shape Of Your Beloved Pet - Gift For Friends, Lovers, Husband, Wife And Pet Lovers - Personalized Custom Shape Pillow_LSTRA001MAR001WP_20/07/23</t>
-  </si>
-  <si>
-    <t>Please Be Mindful Of The Energy You Bring Into This Space - Birthday, Loving Gift For Yourself, Women, Yoga Lovers - Personalized Doormat_VideoAds_DMHP092HAL1425WP_150823</t>
-  </si>
-  <si>
-    <t>Reading Just A Girl Who Loves Book - Gift For Book Lovers - Personalized Custom Zippered Canvas Bag_VideoAds_ZTAT899DIL143WP_280623</t>
-  </si>
-  <si>
-    <t>Camping Couple Husband &amp; Wife Camping Partners For Life - Anniversary, Vacation, Funny Gift For Campers - Personalized Custom Shaped Wood Sign_WSAK887NAH2807WP_14/11/23</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic20_Gift For Mother_14/02</t>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Family, Trippin', Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_VideoAds_PCAH303ELE2165WP_2904</t>
-  </si>
-  <si>
-    <t>Ecomy Gift PTE 03</t>
-  </si>
-  <si>
-    <t>Couple Kissing Style 2 - Anniversary Gift For Couples - Personalized Acrylic Car Hanger_AHBD1019ELE2765WP_28/12/23</t>
+    <t>Keys To The Camper Dogs Cats - Anniversary, Loving Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Aluminum Keychain_VideoAds_LDAK812NAH2477WP_190823</t>
+  </si>
+  <si>
+    <t>Started With A Message - Gift For Couple - Personalized Mug_WMHT357CIN2284WP_28/03/24</t>
+  </si>
+  <si>
+    <t>Marketing_Happy St Patrick's Day - Summer Vibe Image_17/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>New product_Best Dog Dad Ever - Gift For Men Who Love Dogs, Pet Lovers - Personalized Polo Shirt_PRNV853HAL2119WP_26/03/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gifts for Travel Lovers Image_28/02/24</t>
+  </si>
+  <si>
+    <t>You Were My Favorite Hello And Hardest Goodbye - Christmas Memorial Gift - Personalized Custom Shaped Acrylic Ornament_AUNT050DIL242WP_29/08/23</t>
+  </si>
+  <si>
+    <t>Home Is Where We Park It You And Me And The Dogs - Gift For Camping Lovers - Personalized Doormat_VideoAds_DMHC050NGO1503WP_210723</t>
+  </si>
+  <si>
+    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_PCAH305ELE2167WP_14/04</t>
   </si>
   <si>
     <t>First Mom Now Grandma Stars And Stripes - Gift For Mothers, Grandmas, Aunties - Personalized T Shirt_VideoAdsR_TSTR184ELE3001WP_050424</t>
   </si>
   <si>
-    <t>7-day click, 1-day view or 1-day engaged view</t>
-  </si>
-  <si>
-    <t>Marketing_Happy St Patrick's Day - Summer Vibe Image_17/03/24</t>
-  </si>
-  <si>
-    <t>Runagain_Dear Mom Great Job We're Awesome Thank You - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_08/02</t>
-  </si>
-  <si>
-    <t>Marketing_House Warming Gift Ideas Carosel_12/03/24</t>
-  </si>
-  <si>
-    <t>Dear Dad Great Job We're Awesome Thank You Young - Father Gift - Personalized Custom T Shirt_TSBD577HAL759WP_09/05</t>
-  </si>
-  <si>
-    <t>Papa Bear - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Lowball Tumbler_TWYN445ELE3122WP_04/04/24</t>
-  </si>
-  <si>
-    <t>New Product_Stars And Stripes, Fist Bump - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure_TMNN429HEL971WP_28/03/24</t>
-  </si>
-  <si>
-    <t>What Day Is Today Who Cares Retired - Retirement Gift - Personalized Custom T Shirt_TSCT324HAL715WP_01/04</t>
-  </si>
-  <si>
-    <t>Started With A Message - Gift For Couple - Personalized Mug_WMHT357CIN2284WP_28/03/24</t>
-  </si>
-  <si>
-    <t>New product_Best Dog Dad Ever - Gift For Men Who Love Dogs, Pet Lovers - Personalized Polo Shirt_PRNV853HAL2119WP_26/03/24</t>
-  </si>
-  <si>
-    <t>Marketing_Gifts for Travel Lovers Image_28/02/24</t>
-  </si>
-  <si>
-    <t>Marketing_Memorial Gift Ideas Image_11/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Dad, Papa, Daddy Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_TSTR193ELE3063WP_22/03/24</t>
-  </si>
-  <si>
-    <t>Marketing_Happy St Patrick's Day - Summer Vibe Image_17/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Reading Chibi Just A Girl Who Loves Books - Personalized Custom Fleece Blanket_VideoAds_FBMN683CIN1005WP_1705</t>
-  </si>
-  <si>
-    <t>Stars &amp; Stripes, Best Dad Ever Punching Hand - Gift For Father, Daddy - Personalized Tape Measure_TMNA344HEL974WP_02/04/24</t>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_PCAH305ELE2167WP_14/04</t>
-  </si>
-  <si>
-    <t>You Were My Favorite Hello And Hardest Goodbye - Christmas Memorial Gift - Personalized Custom Shaped Acrylic Ornament_AUNT050DIL242WP_29/08/23</t>
-  </si>
-  <si>
-    <t>Kiet Pets 1</t>
-  </si>
-  <si>
-    <t>Patio Welcome Grilling Proudly Serving Whatever You Bring - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK391NAH949WP_16/11</t>
-  </si>
-  <si>
-    <t>Dear Mom Great Job I'm Awesome Thank You - Mother Gift - Personalized Custom T Shirt_05/04</t>
-  </si>
-  <si>
-    <t>Home Is Where We Park It - Family Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Doormat_VideoAds_DMTN1029NAH2410WP_280723</t>
-  </si>
-  <si>
-    <t>You Are My Love I Married You Because I Can't Live Without You Husband Wife - Gift For Couples - Personalized Custom Fleece Blanket_VideoAds_FBAK671NAH1961WP_1403</t>
+    <t>Yoga Girl Morning Affirmations - Gift For Yourself, Gift For Women - Personalized Fleece Blanket_VideoAds_FBTT796NEL1490WP_040823</t>
+  </si>
+  <si>
+    <t>Reading Chibi Girl Just A Girl Who Loves Books - Personalized Custom Pillow_PLNT058CIN558WP_10/12</t>
+  </si>
+  <si>
+    <t>Couple Chibi Our Snuggle Blanket - Gift For Couples, Anniversary, Birthday Gift - Personalized Custom Fleece Blanket_FBGT150CIN1131WP_05/01</t>
   </si>
   <si>
     <t>You And Me And The Dogs Peace Beach View - Gift For Pet Lovers - Personalized Wood Rectangle Sign_WPHC064NGO1532WP_05/08/23</t>
   </si>
   <si>
+    <t>Marketing_International Women's Day - Gift for Her Carosel_08/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>Marketing_International Women's Day - Gift for Her Image_08/03/24</t>
+  </si>
+  <si>
+    <t>Best Dad Ever - Gift For Father, Grandpa - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAds_EMVA796HAL2109WP_280324</t>
+  </si>
+  <si>
+    <t>Marketing_Memorial Gift Ideas Carosel_11/03/24 - Copy 2</t>
+  </si>
+  <si>
     <t>Dad, Papa, Daddy We Love You Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_VideoAds_TSTR200ELE3084WP_040424</t>
-  </si>
-  <si>
-    <t>Dad, Papa, Daddy Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_VideoAds_TSTR193ELE3063WP_030424</t>
-  </si>
-  <si>
-    <t>It's Not A Dad Bod It's A Father Figure - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Lowball Tumbler_TWYN446ELE3123WP_04/04/24</t>
-  </si>
-  <si>
-    <t>Keys To The Camper Dogs Cats - Anniversary, Loving Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Aluminum Keychain_VideoAds_LDAK812NAH2477WP_190823</t>
-  </si>
-  <si>
-    <t>Couple Chibi Our Snuggle Blanket - Gift For Couples, Anniversary, Birthday Gift - Personalized Custom Fleece Blanket_FBGT150CIN1131WP_05/01</t>
-  </si>
-  <si>
-    <t>Marketing_International Women's Day - Gift for Her Image_08/03/24</t>
-  </si>
-  <si>
-    <t>Marketing_Memorial Gift Ideas Carosel_11/03/24 - Copy 2</t>
-  </si>
-  <si>
-    <t>Marketing_International Women's Day - Gift for Her Carosel_08/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Ecomy Gift PTE 04 _UK Time</t>
-  </si>
-  <si>
-    <t>Runagain_Querido Pai Ótimo Trabalho Nós Somos Incríveis Obrigado Jovem - T Shirt Personalizado_TSBD893HAL1390WP_01/03/24</t>
-  </si>
-  <si>
-    <t>Home Is Where We Park It You And Me And The Dogs - Gift For Camping Lovers - Personalized Doormat_VideoAds_DMHC050NGO1503WP_210723</t>
-  </si>
-  <si>
-    <t>Best Papa Bear Ever - Birthday Gift For Father, Grandpa - Personalized T Shirt_VideoAds_TKTR188ELE3042WP_280324</t>
-  </si>
-  <si>
-    <t>Best Mom Ever - Gift For Mother, Grandma - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_EMTR206HAL2134WP_29/03/24</t>
-  </si>
-  <si>
-    <t>Best Dad Ever - Gift For Father, Grandpa - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAds_EMVA796HAL2109WP_280324</t>
-  </si>
-  <si>
-    <t>Reading Chibi Girl Just A Girl Who Loves Books - Personalized Custom Pillow_PLNT058CIN558WP_10/12</t>
-  </si>
-  <si>
-    <t>Yoga Girl Morning Affirmations - Gift For Yourself, Gift For Women - Personalized Fleece Blanket_VideoAds_FBTT796NEL1490WP_040823</t>
-  </si>
-  <si>
-    <t>Kiet Hobbies 1</t>
-  </si>
-  <si>
-    <t>Chibi Girl I'm A Book Reader - Book Lovers Gift - Personalized Custom Wine Tumbler_04/03</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>If Friends Were Flowers Gardening - BFF Bestie Gift - Personalized Custom Wine Tumbler_04/03</t>
   </si>
 </sst>
 </file>
@@ -743,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -806,19 +800,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>807735.0</v>
+        <v>1250494.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>847610.0</v>
+        <v>1349972.0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>1.04936644</v>
+        <v>1.07955096</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>3811.15</v>
+        <v>6353.16</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
@@ -841,19 +835,19 @@
         <v>17</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>93672.0</v>
+        <v>162711.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>102646.0</v>
+        <v>177915.0</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>1.09580237</v>
+        <v>1.09344175</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="8" t="n">
-        <v>735.05</v>
+        <v>1155.0</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
@@ -876,19 +870,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>86571.0</v>
+        <v>45471.0</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>96625.0</v>
+        <v>49858.0</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.11613589</v>
+        <v>1.09647907</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>696.71</v>
+        <v>382.73</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
@@ -911,19 +905,19 @@
         <v>21</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>32545.0</v>
+        <v>56962.0</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>34816.0</v>
+        <v>59205.0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1.0697803</v>
+        <v>1.03937713</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>315.83</v>
+        <v>367.38</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
@@ -940,25 +934,25 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37934.0</v>
+        <v>19429.0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40499.0</v>
+        <v>21504.0</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.06761744</v>
+        <v>1.10679911</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>264.86</v>
+        <v>216.29</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
@@ -978,22 +972,22 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45007.0</v>
+        <v>24577.0</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48833.0</v>
+        <v>27215.0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1.085009</v>
+        <v>1.10733613</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>256.69</v>
+        <v>214.45</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
@@ -1010,28 +1004,28 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>23242.0</v>
+        <v>15897.0</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>24799.0</v>
+        <v>23222.0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>1.06699079</v>
+        <v>1.46077876</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>240.19</v>
+        <v>194.88</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>15</v>
@@ -1045,28 +1039,28 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>19773.0</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>28270.0</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1.42972741</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>194.74</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>24443.0</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>34504.0</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1.41161069</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>198.62</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>15</v>
@@ -1080,25 +1074,25 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>31371.0</v>
+        <v>26876.0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34496.0</v>
+        <v>37704.0</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1.09961429</v>
+        <v>1.40288733</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>197.06</v>
+        <v>191.46</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
@@ -1115,25 +1109,25 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27404.0</v>
+        <v>27221.0</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37724.0</v>
+        <v>38646.0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1.37658736</v>
+        <v>1.41971272</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>196.74</v>
+        <v>190.86</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
@@ -1150,28 +1144,28 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>12680.0</v>
+        <v>24755.0</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>17988.0</v>
+        <v>27015.0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1.41861199</v>
+        <v>1.09129469</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>194.01</v>
+        <v>184.59</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>15</v>
@@ -1185,28 +1179,28 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>15476.0</v>
+        <v>46577.0</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>20158.0</v>
+        <v>50226.0</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>1.30253295</v>
+        <v>1.07834339</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>193.89</v>
+        <v>183.83</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>15</v>
@@ -1220,25 +1214,25 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>48597.0</v>
+        <v>27142.0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>53521.0</v>
+        <v>28761.0</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1.10132313</v>
+        <v>1.05964925</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>185.96</v>
+        <v>172.09</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>14</v>
@@ -1261,19 +1255,19 @@
         <v>35</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15129.0</v>
+        <v>31238.0</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17078.0</v>
+        <v>33439.0</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>1.12882543</v>
+        <v>1.07045906</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>146.94</v>
+        <v>171.5</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>14</v>
@@ -1290,25 +1284,25 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>17767.0</v>
+        <v>7076.0</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>19671.0</v>
+        <v>8876.0</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>1.10716497</v>
+        <v>1.25438101</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>145.07</v>
+        <v>104.22</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>14</v>
@@ -1325,25 +1319,25 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>18152.0</v>
+        <v>12044.0</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>20191.0</v>
+        <v>13631.0</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>1.11232922</v>
+        <v>1.13176685</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>122.84</v>
+        <v>87.82</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>14</v>
@@ -1360,25 +1354,25 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16303.0</v>
+        <v>6674.0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16983.0</v>
+        <v>13149.0</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>1.04171011</v>
+        <v>1.9701828</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>112.78</v>
+        <v>77.6</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>14</v>
@@ -1395,25 +1389,25 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6724.0</v>
+        <v>5283.0</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8178.0</v>
+        <v>8025.0</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>1.21624033</v>
+        <v>1.51902328</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>103.94</v>
+        <v>77.71</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>14</v>
@@ -1430,25 +1424,25 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>15664.0</v>
+        <v>9680.0</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>17542.0</v>
+        <v>16555.0</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>1.11989275</v>
+        <v>1.71022727</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>102.17</v>
+        <v>77.17</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>14</v>
@@ -1465,25 +1459,25 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7662.0</v>
+        <v>11691.0</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>14363.0</v>
+        <v>12918.0</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>1.87457583</v>
+        <v>1.10495253</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>97.29</v>
+        <v>72.37</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>14</v>
@@ -1500,25 +1494,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11446.0</v>
+        <v>7064.0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20666.0</v>
+        <v>7900.0</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>1.80552158</v>
+        <v>1.11834655</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>96.65</v>
+        <v>68.15</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>14</v>
@@ -1535,25 +1529,25 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13951.0</v>
+        <v>5265.0</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14797.0</v>
+        <v>6231.0</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1.06064081</v>
+        <v>1.18347578</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>94.59</v>
+        <v>67.46</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>14</v>
@@ -1570,25 +1564,25 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>8249.0</v>
+        <v>4209.0</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>9040.0</v>
+        <v>4702.0</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>1.09589041</v>
+        <v>1.11712996</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>88.55</v>
+        <v>67.42</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>14</v>
@@ -1605,25 +1599,25 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>11883.0</v>
+        <v>14330.0</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>13133.0</v>
+        <v>28127.0</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>1.10519229</v>
+        <v>1.9628053</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>88.36</v>
+        <v>66.81</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>14</v>
@@ -1640,25 +1634,25 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4038.0</v>
+        <v>25977.0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5019.0</v>
+        <v>42869.0</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>1.24294205</v>
+        <v>1.65026754</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>80.69</v>
+        <v>64.26</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>14</v>
@@ -1675,25 +1669,25 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6036.0</v>
+        <v>8155.0</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7533.0</v>
+        <v>9245.0</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>1.24801193</v>
+        <v>1.13366033</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="8" t="n">
-        <v>80.02</v>
+        <v>60.75</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>14</v>
@@ -1710,25 +1704,25 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>9687.0</v>
+        <v>8593.0</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>12270.0</v>
+        <v>12016.0</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>1.26664602</v>
+        <v>1.39834749</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="8" t="n">
-        <v>79.7</v>
+        <v>58.38</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>14</v>
@@ -1745,25 +1739,25 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>15016.0</v>
+        <v>3897.0</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>20535.0</v>
+        <v>4426.0</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>1.36754129</v>
+        <v>1.13574545</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>79.61</v>
+        <v>58.31</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>14</v>
@@ -1780,25 +1774,25 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5331.0</v>
+        <v>7827.0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7920.0</v>
+        <v>8653.0</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>1.48564997</v>
+        <v>1.10553213</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>77.9</v>
+        <v>54.95</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>14</v>
@@ -1815,25 +1809,25 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10169.0</v>
+        <v>187509.0</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10779.0</v>
+        <v>210641.0</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>1.05998623</v>
+        <v>1.12336475</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>77.34</v>
+        <v>53.55</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>14</v>
@@ -1850,25 +1844,25 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>5896.0</v>
+        <v>9128.0</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>6734.0</v>
+        <v>9686.0</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>1.14213026</v>
+        <v>1.06113059</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>73.08</v>
+        <v>53.18</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>14</v>
@@ -1885,25 +1879,25 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>10762.0</v>
+        <v>20115.0</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>18171.0</v>
+        <v>31055.0</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>1.68844081</v>
+        <v>1.54387273</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>68.78</v>
+        <v>50.07</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>14</v>
@@ -1920,25 +1914,25 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3074.0</v>
+        <v>5408.0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3801.0</v>
+        <v>6802.0</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>1.23649967</v>
+        <v>1.25776627</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>68.22</v>
+        <v>48.97</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>14</v>
@@ -1955,25 +1949,25 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>9253.0</v>
+        <v>5705.0</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12205.0</v>
+        <v>8065.0</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>1.31903167</v>
+        <v>1.41367222</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="8" t="n">
-        <v>66.96</v>
+        <v>48.67</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>14</v>
@@ -1990,25 +1984,25 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>237934.0</v>
+        <v>6973.0</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>268250.0</v>
+        <v>7534.0</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>1.12741348</v>
+        <v>1.08045318</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="8" t="n">
-        <v>67.06</v>
+        <v>48.69</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>14</v>
@@ -2025,28 +2019,28 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>7598.0</v>
+        <v>3052.0</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>8704.0</v>
+        <v>4802.0</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>1.14556462</v>
+        <v>1.5733945</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>64.9</v>
+        <v>48.6</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>15</v>
@@ -2060,25 +2054,25 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>5423.0</v>
+        <v>7585.0</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>6257.0</v>
+        <v>8427.0</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>1.15378942</v>
+        <v>1.11100857</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>61.45</v>
+        <v>48.55</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>14</v>
@@ -2095,25 +2089,25 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>6421.0</v>
+        <v>6123.0</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>8023.0</v>
+        <v>7776.0</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>1.24949385</v>
+        <v>1.2699657</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="8" t="n">
-        <v>60.78</v>
+        <v>48.36</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>14</v>
@@ -2130,25 +2124,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>6670.0</v>
+        <v>6738.0</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>8427.0</v>
+        <v>8438.0</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>1.26341829</v>
+        <v>1.25230039</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="8" t="n">
-        <v>60.77</v>
+        <v>47.8</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>14</v>
@@ -2165,25 +2159,25 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>5880.0</v>
+        <v>5094.0</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>7390.0</v>
+        <v>5971.0</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>1.25680272</v>
+        <v>1.17216333</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="8" t="n">
-        <v>60.46</v>
+        <v>43.36</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>14</v>
@@ -2203,22 +2197,22 @@
         <v>18</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="6" t="n">
-        <v>8965.0</v>
+        <v>3684.0</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>9760.0</v>
+        <v>4019.0</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>1.08867819</v>
+        <v>1.09093377</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="8" t="n">
-        <v>59.53</v>
+        <v>39.52</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>14</v>
@@ -2235,25 +2229,25 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>8763.0</v>
+        <v>4353.0</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>12372.0</v>
+        <v>5502.0</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>1.41184526</v>
+        <v>1.26395589</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="8" t="n">
-        <v>58.48</v>
+        <v>38.73</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>14</v>
@@ -2270,25 +2264,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="6" t="n">
-        <v>3966.0</v>
+        <v>2456.0</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>4636.0</v>
+        <v>2808.0</v>
       </c>
       <c r="E44" s="7" t="n">
-        <v>1.16893596</v>
+        <v>1.14332248</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="8" t="n">
-        <v>57.27</v>
+        <v>38.37</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>14</v>
@@ -2305,25 +2299,25 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>5994.0</v>
+        <v>3733.0</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>6481.0</v>
+        <v>4127.0</v>
       </c>
       <c r="E45" s="7" t="n">
-        <v>1.08124791</v>
+        <v>1.10554514</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="8" t="n">
-        <v>49.23</v>
+        <v>37.85</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>14</v>
@@ -2340,25 +2334,25 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="6" t="n">
-        <v>5279.0</v>
+        <v>2552.0</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>7471.0</v>
+        <v>3152.0</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>1.41523016</v>
+        <v>1.23510972</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>49.09</v>
+        <v>35.55</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>14</v>
@@ -2375,25 +2369,25 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="6" t="n">
-        <v>3591.0</v>
+        <v>2613.0</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>4061.0</v>
+        <v>2924.0</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>1.13088276</v>
+        <v>1.11902028</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="8" t="n">
-        <v>48.71</v>
+        <v>34.64</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>14</v>
@@ -2410,28 +2404,28 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="6" t="n">
-        <v>2316.0</v>
+        <v>216887.0</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>3620.0</v>
+        <v>225230.0</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>1.56303972</v>
+        <v>1.03846704</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="8" t="n">
-        <v>48.54</v>
+        <v>34.49</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>15</v>
@@ -2445,25 +2439,25 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>5662.0</v>
+        <v>4086.0</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>6425.0</v>
+        <v>4429.0</v>
       </c>
       <c r="E49" s="7" t="n">
-        <v>1.13475804</v>
+        <v>1.08394518</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="8" t="n">
-        <v>48.51</v>
+        <v>33.98</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>14</v>
@@ -2480,28 +2474,28 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>4703.0</v>
+        <v>1751.0</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>4980.0</v>
+        <v>3061.0</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>1.05889858</v>
+        <v>1.74814392</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="8" t="n">
-        <v>42.99</v>
+        <v>33.91</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>15</v>
@@ -2515,25 +2509,25 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51" s="6" t="n">
-        <v>171624.0</v>
+        <v>178381.0</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>189368.0</v>
+        <v>203300.0</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>1.1033888</v>
+        <v>1.13969537</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="8" t="n">
-        <v>42.29</v>
+        <v>33.81</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>14</v>
@@ -2550,25 +2544,25 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" s="6" t="n">
-        <v>260478.0</v>
+        <v>136957.0</v>
       </c>
       <c r="D52" s="6" t="n">
-        <v>271148.0</v>
+        <v>149504.0</v>
       </c>
       <c r="E52" s="7" t="n">
-        <v>1.04096315</v>
+        <v>1.0916127</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="8" t="n">
-        <v>41.52</v>
+        <v>33.46</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>14</v>
@@ -2585,25 +2579,25 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C53" s="6" t="n">
-        <v>187794.0</v>
+        <v>14795.0</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>208759.0</v>
+        <v>25237.0</v>
       </c>
       <c r="E53" s="7" t="n">
-        <v>1.11163828</v>
+        <v>1.70577898</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="8" t="n">
-        <v>41.33</v>
+        <v>30.59</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>14</v>
@@ -2620,25 +2614,25 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C54" s="6" t="n">
-        <v>3053.0</v>
+        <v>1260.0</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>3616.0</v>
+        <v>1498.0</v>
       </c>
       <c r="E54" s="7" t="n">
-        <v>1.18440878</v>
+        <v>1.18888889</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="8" t="n">
-        <v>40.26</v>
+        <v>30.05</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>14</v>
@@ -2658,22 +2652,22 @@
         <v>18</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C55" s="6" t="n">
-        <v>3182.0</v>
+        <v>2955.0</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>3446.0</v>
+        <v>3186.0</v>
       </c>
       <c r="E55" s="7" t="n">
-        <v>1.08296669</v>
+        <v>1.07817259</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="8" t="n">
-        <v>38.28</v>
+        <v>29.6</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>14</v>
@@ -2690,25 +2684,25 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>2702.0</v>
+        <v>5823.0</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>3058.0</v>
+        <v>7558.0</v>
       </c>
       <c r="E56" s="7" t="n">
-        <v>1.13175426</v>
+        <v>1.29795638</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="8" t="n">
-        <v>36.2</v>
+        <v>28.81</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>14</v>
@@ -2728,22 +2722,22 @@
         <v>20</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" s="6" t="n">
-        <v>4835.0</v>
+        <v>2467.0</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>5339.0</v>
+        <v>2708.0</v>
       </c>
       <c r="E57" s="7" t="n">
-        <v>1.10423992</v>
+        <v>1.0976895</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="8" t="n">
-        <v>35.89</v>
+        <v>28.23</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>14</v>
@@ -2760,25 +2754,25 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C58" s="6" t="n">
-        <v>6047.0</v>
+        <v>3476.0</v>
       </c>
       <c r="D58" s="6" t="n">
-        <v>7284.0</v>
+        <v>3961.0</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>1.20456425</v>
+        <v>1.13952819</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="8" t="n">
-        <v>29.56</v>
+        <v>26.65</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>14</v>
@@ -2795,25 +2789,25 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" s="6" t="n">
-        <v>1665.0</v>
+        <v>1120.0</v>
       </c>
       <c r="D59" s="6" t="n">
-        <v>1905.0</v>
+        <v>1325.0</v>
       </c>
       <c r="E59" s="7" t="n">
-        <v>1.14414414</v>
+        <v>1.18303571</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="8" t="n">
-        <v>28.97</v>
+        <v>26.29</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>14</v>
@@ -2830,25 +2824,25 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="6" t="n">
-        <v>3293.0</v>
+        <v>7253.0</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>3687.0</v>
+        <v>10622.0</v>
       </c>
       <c r="E60" s="7" t="n">
-        <v>1.11964774</v>
+        <v>1.46449745</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="8" t="n">
-        <v>28.55</v>
+        <v>25.5</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>14</v>
@@ -2865,28 +2859,28 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="6" t="n">
-        <v>961.0</v>
+        <v>1033.0</v>
       </c>
       <c r="D61" s="6" t="n">
-        <v>1237.0</v>
+        <v>1401.0</v>
       </c>
       <c r="E61" s="7" t="n">
-        <v>1.28720083</v>
+        <v>1.35624395</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="8" t="n">
-        <v>24.61</v>
+        <v>21.71</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>15</v>
@@ -2900,25 +2894,25 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C62" s="6" t="n">
-        <v>1057.0</v>
+        <v>2868.0</v>
       </c>
       <c r="D62" s="6" t="n">
-        <v>1207.0</v>
+        <v>3233.0</v>
       </c>
       <c r="E62" s="7" t="n">
-        <v>1.14191107</v>
+        <v>1.12726639</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="8" t="n">
-        <v>24.12</v>
+        <v>20.17</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>14</v>
@@ -2935,25 +2929,25 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C63" s="6" t="n">
-        <v>1831.0</v>
+        <v>2231.0</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>2141.0</v>
+        <v>3225.0</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>1.16930639</v>
+        <v>1.44554012</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="8" t="n">
-        <v>20.02</v>
+        <v>19.53</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>14</v>
@@ -2970,25 +2964,25 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C64" s="6" t="n">
-        <v>2987.0</v>
+        <v>1692.0</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>3632.0</v>
+        <v>2028.0</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>1.21593572</v>
+        <v>1.19858156</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="8" t="n">
-        <v>18.32</v>
+        <v>19.49</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>14</v>
@@ -3005,25 +2999,25 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C65" s="6" t="n">
-        <v>1453.0</v>
+        <v>1170.0</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>1568.0</v>
+        <v>1291.0</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>1.07914659</v>
+        <v>1.1034188</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="8" t="n">
-        <v>17.66</v>
+        <v>17.13</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>14</v>
@@ -3040,25 +3034,25 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C66" s="6" t="n">
-        <v>871.0</v>
+        <v>2029.0</v>
       </c>
       <c r="D66" s="6" t="n">
-        <v>1114.0</v>
+        <v>2657.0</v>
       </c>
       <c r="E66" s="7" t="n">
-        <v>1.27898967</v>
+        <v>1.30951207</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="8" t="n">
-        <v>17.25</v>
+        <v>15.42</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>14</v>
@@ -3075,25 +3069,25 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C67" s="6" t="n">
-        <v>1382.0</v>
+        <v>1842.0</v>
       </c>
       <c r="D67" s="6" t="n">
-        <v>1562.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E67" s="7" t="n">
-        <v>1.13024602</v>
+        <v>1.06351792</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="8" t="n">
-        <v>14.9</v>
+        <v>12.9</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>14</v>
@@ -3110,25 +3104,25 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="6" t="n">
-        <v>1384.0</v>
+        <v>1234.0</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>1601.0</v>
+        <v>1400.0</v>
       </c>
       <c r="E68" s="7" t="n">
-        <v>1.15679191</v>
+        <v>1.13452188</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="8" t="n">
-        <v>14.37</v>
+        <v>12.57</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>14</v>
@@ -3145,25 +3139,25 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="6" t="n">
-        <v>2047.0</v>
+        <v>498.0</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>2264.0</v>
+        <v>555.0</v>
       </c>
       <c r="E69" s="7" t="n">
-        <v>1.10600879</v>
+        <v>1.11445783</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="8" t="n">
-        <v>13.63</v>
+        <v>10.76</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>14</v>
@@ -3180,25 +3174,25 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="6" t="n">
-        <v>1007.0</v>
+        <v>635.0</v>
       </c>
       <c r="D70" s="6" t="n">
-        <v>1185.0</v>
+        <v>737.0</v>
       </c>
       <c r="E70" s="7" t="n">
-        <v>1.17676266</v>
+        <v>1.16062992</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="8" t="n">
-        <v>12.8</v>
+        <v>10.11</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>14</v>
@@ -3215,25 +3209,25 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="6" t="n">
-        <v>681.0</v>
+        <v>379.0</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>761.0</v>
+        <v>431.0</v>
       </c>
       <c r="E71" s="7" t="n">
-        <v>1.1174743</v>
+        <v>1.13720317</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="8" t="n">
-        <v>12.36</v>
+        <v>9.96</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>14</v>
@@ -3250,25 +3244,25 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C72" s="6" t="n">
-        <v>737.0</v>
+        <v>3700.0</v>
       </c>
       <c r="D72" s="6" t="n">
-        <v>835.0</v>
+        <v>5607.0</v>
       </c>
       <c r="E72" s="7" t="n">
-        <v>1.13297151</v>
+        <v>1.51540541</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="8" t="n">
-        <v>12.31</v>
+        <v>9.95</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>14</v>
@@ -3285,25 +3279,25 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="6" t="n">
-        <v>1181.0</v>
+        <v>1021.0</v>
       </c>
       <c r="D73" s="6" t="n">
-        <v>1342.0</v>
+        <v>1179.0</v>
       </c>
       <c r="E73" s="7" t="n">
-        <v>1.13632515</v>
+        <v>1.15475024</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="8" t="n">
-        <v>12.27</v>
+        <v>9.94</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>14</v>
@@ -3320,25 +3314,25 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="6" t="n">
-        <v>2232.0</v>
+        <v>1100.0</v>
       </c>
       <c r="D74" s="6" t="n">
-        <v>3367.0</v>
+        <v>1257.0</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>1.50851254</v>
+        <v>1.14272727</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="8" t="n">
-        <v>12.21</v>
+        <v>9.74</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>14</v>
@@ -3355,25 +3349,25 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="6" t="n">
-        <v>1294.0</v>
+        <v>680.0</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>1833.0</v>
+        <v>808.0</v>
       </c>
       <c r="E75" s="7" t="n">
-        <v>1.41653787</v>
+        <v>1.18823529</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="8" t="n">
-        <v>11.65</v>
+        <v>9.49</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>14</v>
@@ -3390,25 +3384,25 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="6" t="n">
-        <v>891.0</v>
+        <v>1034.0</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>1085.0</v>
+        <v>1510.0</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>1.21773288</v>
+        <v>1.46034816</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="8" t="n">
-        <v>10.94</v>
+        <v>9.08</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>14</v>
@@ -3425,25 +3419,25 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="6" t="n">
-        <v>678.0</v>
+        <v>1030.0</v>
       </c>
       <c r="D77" s="6" t="n">
-        <v>721.0</v>
+        <v>1168.0</v>
       </c>
       <c r="E77" s="7" t="n">
-        <v>1.06342183</v>
+        <v>1.13398058</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="8" t="n">
-        <v>10.25</v>
+        <v>8.91</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>14</v>
@@ -3460,25 +3454,25 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="6" t="n">
-        <v>655.0</v>
+        <v>500.0</v>
       </c>
       <c r="D78" s="6" t="n">
-        <v>728.0</v>
+        <v>593.0</v>
       </c>
       <c r="E78" s="7" t="n">
-        <v>1.11145038</v>
+        <v>1.186</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="8" t="n">
-        <v>10.19</v>
+        <v>8.29</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>14</v>
@@ -3495,25 +3489,25 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="6" t="n">
-        <v>1207.0</v>
+        <v>4022.0</v>
       </c>
       <c r="D79" s="6" t="n">
-        <v>1654.0</v>
+        <v>4499.0</v>
       </c>
       <c r="E79" s="7" t="n">
-        <v>1.37033969</v>
+        <v>1.11859771</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="8" t="n">
-        <v>10.14</v>
+        <v>7.76</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>14</v>
@@ -3530,25 +3524,25 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="6" t="n">
-        <v>808.0</v>
+        <v>860.0</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>931.0</v>
+        <v>917.0</v>
       </c>
       <c r="E80" s="7" t="n">
-        <v>1.15222772</v>
+        <v>1.06627907</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="8" t="n">
-        <v>9.49</v>
+        <v>7.31</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>14</v>
@@ -3568,22 +3562,22 @@
         <v>18</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C81" s="6" t="n">
-        <v>1347.0</v>
+        <v>909.0</v>
       </c>
       <c r="D81" s="6" t="n">
-        <v>1532.0</v>
+        <v>1060.0</v>
       </c>
       <c r="E81" s="7" t="n">
-        <v>1.13734224</v>
+        <v>1.16611661</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="8" t="n">
-        <v>9.32</v>
+        <v>7.16</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>14</v>
@@ -3603,22 +3597,22 @@
         <v>18</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="6" t="n">
-        <v>969.0</v>
+        <v>623.0</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>1073.0</v>
+        <v>726.0</v>
       </c>
       <c r="E82" s="7" t="n">
-        <v>1.10732714</v>
+        <v>1.16532905</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="8" t="n">
-        <v>9.13</v>
+        <v>6.94</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>14</v>
@@ -3635,25 +3629,25 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" s="6" t="n">
-        <v>707.0</v>
+        <v>1002.0</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>786.0</v>
+        <v>1098.0</v>
       </c>
       <c r="E83" s="7" t="n">
-        <v>1.11173975</v>
+        <v>1.09580838</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="8" t="n">
-        <v>7.88</v>
+        <v>6.8</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>14</v>
@@ -3670,28 +3664,28 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C84" s="6" t="n">
-        <v>355.0</v>
+        <v>2029.0</v>
       </c>
       <c r="D84" s="6" t="n">
-        <v>450.0</v>
+        <v>3622.0</v>
       </c>
       <c r="E84" s="7" t="n">
-        <v>1.26760563</v>
+        <v>1.78511582</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="8" t="n">
-        <v>7.28</v>
+        <v>5.49</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>15</v>
@@ -3705,28 +3699,28 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C85" s="6" t="n">
-        <v>386.0</v>
+        <v>342.0</v>
       </c>
       <c r="D85" s="6" t="n">
-        <v>471.0</v>
+        <v>398.0</v>
       </c>
       <c r="E85" s="7" t="n">
-        <v>1.22020725</v>
+        <v>1.16374269</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="8" t="n">
-        <v>7.05</v>
+        <v>5.04</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>15</v>
@@ -3740,25 +3734,25 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C86" s="6" t="n">
-        <v>363.0</v>
+        <v>303.0</v>
       </c>
       <c r="D86" s="6" t="n">
-        <v>435.0</v>
+        <v>349.0</v>
       </c>
       <c r="E86" s="7" t="n">
-        <v>1.19834711</v>
+        <v>1.15181518</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="8" t="n">
-        <v>6.92</v>
+        <v>4.99</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>14</v>
@@ -3775,25 +3769,25 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C87" s="6" t="n">
-        <v>672.0</v>
+        <v>404.0</v>
       </c>
       <c r="D87" s="6" t="n">
-        <v>776.0</v>
+        <v>441.0</v>
       </c>
       <c r="E87" s="7" t="n">
-        <v>1.1547619</v>
+        <v>1.09158416</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="8" t="n">
-        <v>6.92</v>
+        <v>4.87</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>14</v>
@@ -3810,25 +3804,25 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C88" s="6" t="n">
-        <v>1142.0</v>
+        <v>432.0</v>
       </c>
       <c r="D88" s="6" t="n">
-        <v>1274.0</v>
+        <v>496.0</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>1.11558669</v>
+        <v>1.14814815</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="8" t="n">
-        <v>6.67</v>
+        <v>4.85</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>14</v>
@@ -3845,25 +3839,25 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C89" s="6" t="n">
-        <v>501.0</v>
+        <v>408.0</v>
       </c>
       <c r="D89" s="6" t="n">
-        <v>619.0</v>
+        <v>443.0</v>
       </c>
       <c r="E89" s="7" t="n">
-        <v>1.23552894</v>
+        <v>1.08578431</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="8" t="n">
-        <v>6.15</v>
+        <v>4.42</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>14</v>
@@ -3880,28 +3874,28 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C90" s="6" t="n">
-        <v>946.0</v>
+        <v>323.0</v>
       </c>
       <c r="D90" s="6" t="n">
-        <v>1231.0</v>
+        <v>365.0</v>
       </c>
       <c r="E90" s="7" t="n">
-        <v>1.3012685</v>
+        <v>1.13003096</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G90" s="8" t="n">
-        <v>6.1</v>
+        <v>3.92</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>15</v>
@@ -3915,25 +3909,25 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" s="6" t="n">
-        <v>1188.0</v>
+        <v>253.0</v>
       </c>
       <c r="D91" s="6" t="n">
-        <v>1650.0</v>
+        <v>284.0</v>
       </c>
       <c r="E91" s="7" t="n">
-        <v>1.38888889</v>
+        <v>1.12252964</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="8" t="n">
-        <v>6.09</v>
+        <v>3.95</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>14</v>
@@ -3950,25 +3944,25 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C92" s="6" t="n">
-        <v>2843.0</v>
+        <v>1333.0</v>
       </c>
       <c r="D92" s="6" t="n">
-        <v>3353.0</v>
+        <v>1406.0</v>
       </c>
       <c r="E92" s="7" t="n">
-        <v>1.17938797</v>
+        <v>1.05476369</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G92" s="8" t="n">
-        <v>5.76</v>
+        <v>3.94</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>14</v>
@@ -3985,25 +3979,25 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C93" s="6" t="n">
-        <v>342.0</v>
+        <v>655.0</v>
       </c>
       <c r="D93" s="6" t="n">
-        <v>384.0</v>
+        <v>719.0</v>
       </c>
       <c r="E93" s="7" t="n">
-        <v>1.12280702</v>
+        <v>1.09770992</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="8" t="n">
-        <v>4.9</v>
+        <v>3.87</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>14</v>
@@ -4020,28 +4014,28 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C94" s="6" t="n">
-        <v>251.0</v>
+        <v>345.0</v>
       </c>
       <c r="D94" s="6" t="n">
-        <v>296.0</v>
+        <v>366.0</v>
       </c>
       <c r="E94" s="7" t="n">
-        <v>1.17928287</v>
+        <v>1.06086957</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="8" t="n">
-        <v>4.76</v>
+        <v>2.96</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>15</v>
@@ -4055,31 +4049,31 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="6" t="n">
-        <v>223.0</v>
+        <v>12.0</v>
       </c>
       <c r="D95" s="6" t="n">
-        <v>242.0</v>
+        <v>12.0</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>1.08520179</v>
+        <v>1.0</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="8" t="n">
-        <v>4.11</v>
+        <v>0.44</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>16</v>
@@ -4090,31 +4084,31 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D96" s="6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E96" s="7" t="n">
+        <v>1.14285714</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C96" s="6" t="n">
-        <v>221.0</v>
-      </c>
-      <c r="D96" s="6" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="E96" s="7" t="n">
-        <v>1.07239819</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="8" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>16</v>
@@ -4125,31 +4119,31 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C97" s="6" t="n">
-        <v>458.0</v>
+        <v>6.0</v>
       </c>
       <c r="D97" s="6" t="n">
-        <v>472.0</v>
+        <v>6.0</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>1.03056769</v>
+        <v>1.0</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="8" t="n">
-        <v>3.94</v>
+        <v>0.1</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>16</v>
@@ -4160,31 +4154,31 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C98" s="6" t="n">
-        <v>199.0</v>
+        <v>8.0</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>219.0</v>
+        <v>8.0</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>1.10050251</v>
+        <v>1.0</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="8" t="n">
-        <v>3.74</v>
+        <v>0.04</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>16</v>
@@ -4195,16 +4189,16 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C99" s="6" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="D99" s="6" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="E99" s="7" t="n">
         <v>1.0</v>
@@ -4213,53 +4207,18 @@
         <v>13</v>
       </c>
       <c r="G99" s="8" t="n">
-        <v>0.56</v>
+        <v>0.02</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>16</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" s="6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D100" s="6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E100" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="9" t="s">
         <v>16</v>
       </c>
     </row>
